--- a/medicine/Enfance/Albert_Sidney_Fleischman/Albert_Sidney_Fleischman.xlsx
+++ b/medicine/Enfance/Albert_Sidney_Fleischman/Albert_Sidney_Fleischman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Sidney Fleischman, né le 16 mars 1920 à Brooklyn, New York et mort le 17 mars 2010 à Santa Monica en Californie, est un écrivain américain de roman policier, de roman d'espionnage et sous le pseudonyme de Sid Fleischman de littérature d'enfance et de jeunesse.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parents d'Albert Sidney Fleischman sont d'origine juive russe. Ils partent de Brooklyn à San Diego en Californie alors que le jeune Albert n'a que deux ans. Il découvre rapidement la magie. Tout en poursuivant ses études, il se produit comme prestidigitateur dans les boîtes de nuit. En 1939, il publie son premier livre sur la magie Between Cocktails. Il commence des études universitaires au San Diego State University
 interrompues par la Seconde Guerre mondiale au cours de laquelle il sert sur un destroyer d’escorte dans le Pacifique.
 Il publie en 1948 son premier roman The Straw Donkey Case tout en continuant ses études sanctionnées par l’obtention en 1949 d’un baccalauréat en anglais. Il travaille quelque temps comme journaliste au San Diego Daily Journal (en). Il continue de publier plusieurs romans policiers, d'espionnage et d'aventures. En 1955, il adapte son roman Blood Alley à la demande de William A. Wellman pour le film homonyme interprété par John Wayne et Lauren Bacall. C’est le début d’un travail avec l’industrie cinématographique qui dure pendant plusieurs décennies au cours desquelles il travaille également avec Sam Peckinpah et Kirk Douglas.
-Père de trois enfants, il écrit en 1962 Mr Mysterious &amp; Company, son premier roman pour la jeunesse signé Sid Fleischman, nom qu’il garde pour signer toutes ses œuvres dans ce genre. Il obtient deux prix littéraires, le Boston Globe-Horn Book Award en 1979 pour Humbug Mountain et la médaille Newbery en 1987 pour The Whipping Boy. Devant son succès dans ce genre littéraire, il est le candidat américain pour le prix Hans Christian Andersen en 1994[1]. En 2003, la Society of Children's Book Writers and Illustrators (en) crée le prix Sid Fleischman dont il est le premier récipiendaire[2].
+Père de trois enfants, il écrit en 1962 Mr Mysterious &amp; Company, son premier roman pour la jeunesse signé Sid Fleischman, nom qu’il garde pour signer toutes ses œuvres dans ce genre. Il obtient deux prix littéraires, le Boston Globe-Horn Book Award en 1979 pour Humbug Mountain et la médaille Newbery en 1987 pour The Whipping Boy. Devant son succès dans ce genre littéraire, il est le candidat américain pour le prix Hans Christian Andersen en 1994. En 2003, la Society of Children's Book Writers and Illustrators (en) crée le prix Sid Fleischman dont il est le premier récipiendaire.
 </t>
         </is>
       </c>
@@ -547,31 +561,213 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
-The Straw Donkey Case, 1948
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Straw Donkey Case, 1948
 Murder’s No Accident, 1949
 The Venetian Blonde, 1964
-Sans atouts, Série noire no 956, 1965
-Romans d'espionnage
-Shangaï Flame, 1951
+Sans atouts, Série noire no 956, 1965</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans d'espionnage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Shangaï Flame, 1951
 Look Behind You Lady, 1952
 Gardez-vous à gauche, Série noire no 949, 1965
 Danger in Paradise, 1954
 Périls au paradis, Série noire no 976, 1965
 Counterspy Express, 1954
 Train d'enfer, Fleuve noir collection Espionnage no 71, 1955
-Malay Woman, 1954
-Roman d’aventures
-Blood Alley, 1955
-Western
-Yellowleg, 1961
-Romans d’enfance et de jeunesse signés Sid Fleischman
-Série Mr. Mysterious
-Mr. Mysterious &amp; Co (1962)
+Malay Woman, 1954</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Roman d’aventures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Blood Alley, 1955</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yellowleg, 1961</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans d’enfance et de jeunesse signés Sid Fleischman</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Mr. Mysterious</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mr. Mysterious &amp; Co (1962)
 Monsieur Mystère et Cie, Hachette, Bibliothèque verte no 344, 1967
-Mr. Mysterious's Secrets of Magic (1975)
-Série McBroom
-McBroom Tells the Truth (1966)
+Mr. Mysterious's Secrets of Magic (1975)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans d’enfance et de jeunesse signés Sid Fleischman</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série McBroom</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>McBroom Tells the Truth (1966)
 McBroom and the Big Wind (1967)
 McBroom's Ear (1969)
 McBroom's Ghost (1971)
@@ -584,17 +780,93 @@
 Le Retour de Mister Mac Miffic, Nathan, « Arc en poche » no 107, 1979
 McBroom and the Beanstalk (1978)
 McBroom and the Great Race (1980)
-McBroom's Almanac (1984)
-Série The Bloodhound Gang
-The Bloodhound Gang était une série télévisée présentant trois jeunes détectives s'appuyant sur la science pour résoudre des affaires. Elle constituait une séquence indépendante au sein de l'émission 3-2-1 Contact.
+McBroom's Almanac (1984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans d’enfance et de jeunesse signés Sid Fleischman</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série The Bloodhound Gang</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The Bloodhound Gang était une série télévisée présentant trois jeunes détectives s'appuyant sur la science pour résoudre des affaires. Elle constituait une séquence indépendante au sein de l'émission 3-2-1 Contact.
 The Case of the Cackling Ghost, 1981
 The Case of the Flying Clock, 1981
 The Case of the Secret Message, 1981
 The Case of Princess Tomorrow, 1981
 The Case of the 264 Pound Burglar, 1982
-The Bloodhound Gang's Secret Code Book, 1982
-Autres romans
-By the Great Horn Spoon !, 1963
+The Bloodhound Gang's Secret Code Book, 1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans d’enfance et de jeunesse signés Sid Fleischman</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>By the Great Horn Spoon !, 1963
 Jack, chercheur de trésor, Hachette, Bibliothèque verte, 1965
 Le Faiseur de pluie, L'École des loisirs, 2004
 The Ghost in the Noonday Sun, 1965
@@ -632,9 +904,43 @@
 The Giant Rat of Sumatra, 2005
 The White Elephant, 2006
 The Entertainer and the Dybbuk, 2008
-The Dream Stealer, 2009
-Ouvrages sur la magie
-Between Cocktails, 1939
+The Dream Stealer, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ouvrages sur la magie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Between Cocktails, 1939
 Ready, Aim, Magic! (coécrit avec Bob Gunther), 1942
 Call the Witness (coécrit avec Bob Gunther), 1943
 The Blue Bug (coécrit avec Bob Gunther), 1947
@@ -645,31 +951,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Albert_Sidney_Fleischman</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Albert_Sidney_Fleischman</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1955 : L'Allée sanglante, adaptation de Blood Alley réalisée par William A. Wellman
 1956 : Adieu Lady (Good-bye, My Lady) réalisée par William A. Wellman
@@ -684,31 +992,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Albert_Sidney_Fleischman</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Albert_Sidney_Fleischman</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Sidney_Fleischman</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Claude Mesplède, Les Années Série noire vol.2 (1959-1966) Encrage « Travaux » no 17, 1993
 Claude Mesplède et Jean-Jacques Schleret, SN Voyage au bout de la noire, Futuropolis, 1982</t>
